--- a/inst/extdata/Machine_Example/Machine_Failure.xlsx
+++ b/inst/extdata/Machine_Example/Machine_Failure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Eu.product</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
@@ -99,13 +96,34 @@
   </si>
   <si>
     <t>Interpolated</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Energy.type</t>
+  </si>
+  <si>
+    <t>Last.stage</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>PCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +179,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,11 +228,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -224,7 +250,27 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -602,35 +648,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -639,553 +685,622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF4"/>
+  <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:61" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1960</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1961</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1962</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1963</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1964</v>
+      </c>
+      <c r="M2" s="11">
+        <v>1965</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1966</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1967</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1968</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1969</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1970</v>
+      </c>
+      <c r="S2" s="11">
+        <v>1971</v>
+      </c>
+      <c r="T2" s="11">
+        <v>1972</v>
+      </c>
+      <c r="U2" s="11">
+        <v>1973</v>
+      </c>
+      <c r="V2" s="11">
+        <v>1974</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1975</v>
+      </c>
+      <c r="X2" s="11">
+        <v>1976</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>1977</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>1978</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>1979</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>1980</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>1981</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>1982</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1983</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>1984</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>1985</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>1986</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>1987</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>1988</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>1989</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>1990</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>1991</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>1992</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>1993</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>1994</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>1995</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>1996</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>1997</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>1998</v>
+      </c>
+      <c r="AU2" s="11">
+        <v>1999</v>
+      </c>
+      <c r="AV2" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>2001</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>2002</v>
+      </c>
+      <c r="AY2" s="11">
+        <v>2003</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>2004</v>
+      </c>
+      <c r="BA2" s="11">
+        <v>2005</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>2006</v>
+      </c>
+      <c r="BC2" s="11">
+        <v>2007</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>2008</v>
+      </c>
+      <c r="BE2" s="11">
+        <v>2009</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>2010</v>
+      </c>
+      <c r="BG2" s="11">
+        <v>2011</v>
+      </c>
+      <c r="BH2" s="11">
+        <v>2012</v>
+      </c>
+      <c r="BI2" s="11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1960</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1961</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1962</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1963</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1964</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1965</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1966</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1967</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1968</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1969</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1970</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1971</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1972</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1973</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1974</v>
-      </c>
-      <c r="T2" s="3">
-        <v>1975</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1976</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1977</v>
-      </c>
-      <c r="W2" s="3">
-        <v>1978</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1979</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>1980</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>1981</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>1982</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>1983</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>1984</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>1985</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>1986</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>1987</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>1988</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>1989</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>1990</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>1991</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>1992</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>1993</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>1994</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>1995</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>1996</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>1997</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>1998</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>1999</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>2001</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>2002</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>2003</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>2004</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>2005</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>2006</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>2007</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>2008</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>2009</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>2010</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>2011</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>2012</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H3" s="12">
+        <f t="array" ref="H3:BI3">TRANSPOSE(UNEP_2017!G5:G58)</f>
+        <v>0.88</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>0.9002</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>0.90079999999999993</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>0.90099999999999991</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>0.90119999999999989</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>0.90139999999999987</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>0.90159999999999985</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>0.90179999999999982</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="AM3" s="12">
+        <v>0.90570000000000006</v>
+      </c>
+      <c r="AN3" s="12">
+        <v>0.9094000000000001</v>
+      </c>
+      <c r="AO3" s="12">
+        <v>0.91310000000000013</v>
+      </c>
+      <c r="AP3" s="12">
+        <v>0.91680000000000017</v>
+      </c>
+      <c r="AQ3" s="12">
+        <v>0.92050000000000021</v>
+      </c>
+      <c r="AR3" s="12">
+        <v>0.92420000000000024</v>
+      </c>
+      <c r="AS3" s="12">
+        <v>0.92790000000000028</v>
+      </c>
+      <c r="AT3" s="12">
+        <v>0.93160000000000032</v>
+      </c>
+      <c r="AU3" s="12">
+        <v>0.93530000000000035</v>
+      </c>
+      <c r="AV3" s="12">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AW3" s="12">
+        <v>0.94019999999999992</v>
+      </c>
+      <c r="AX3" s="12">
+        <v>0.9413999999999999</v>
+      </c>
+      <c r="AY3" s="12">
+        <v>0.94259999999999988</v>
+      </c>
+      <c r="AZ3" s="12">
+        <v>0.94379999999999986</v>
+      </c>
+      <c r="BA3" s="12">
+        <v>0.94499999999999984</v>
+      </c>
+      <c r="BB3" s="12">
+        <v>0.94619999999999982</v>
+      </c>
+      <c r="BC3" s="12">
+        <v>0.9473999999999998</v>
+      </c>
+      <c r="BD3" s="12">
+        <v>0.94859999999999978</v>
+      </c>
+      <c r="BE3" s="12">
+        <v>0.94979999999999976</v>
+      </c>
+      <c r="BF3" s="12">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="BG3" s="12">
+        <v>0.95333333333333325</v>
+      </c>
+      <c r="BH3" s="12">
+        <v>0.95566666666666655</v>
+      </c>
+      <c r="BI3" s="12">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12">
-        <f t="array" ref="E3:BF3">TRANSPOSE(UNEP_2017!G5:G58)</f>
-        <v>0.88</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="R3" s="12">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="S3" s="12">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="T3" s="12">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="U3" s="12">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="V3" s="12">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="W3" s="12">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="X3" s="12">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>0.9002</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>0.90059999999999996</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>0.90079999999999993</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>0.90099999999999991</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>0.90119999999999989</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>0.90139999999999987</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>0.90159999999999985</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>0.90179999999999982</v>
-      </c>
-      <c r="AI3" s="12">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="AJ3" s="12">
-        <v>0.90570000000000006</v>
-      </c>
-      <c r="AK3" s="12">
-        <v>0.9094000000000001</v>
-      </c>
-      <c r="AL3" s="12">
-        <v>0.91310000000000013</v>
-      </c>
-      <c r="AM3" s="12">
-        <v>0.91680000000000017</v>
-      </c>
-      <c r="AN3" s="12">
-        <v>0.92050000000000021</v>
-      </c>
-      <c r="AO3" s="12">
-        <v>0.92420000000000024</v>
-      </c>
-      <c r="AP3" s="12">
-        <v>0.92790000000000028</v>
-      </c>
-      <c r="AQ3" s="12">
-        <v>0.93160000000000032</v>
-      </c>
-      <c r="AR3" s="12">
-        <v>0.93530000000000035</v>
-      </c>
-      <c r="AS3" s="12">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="AT3" s="12">
-        <v>0.94019999999999992</v>
-      </c>
-      <c r="AU3" s="12">
-        <v>0.9413999999999999</v>
-      </c>
-      <c r="AV3" s="12">
-        <v>0.94259999999999988</v>
-      </c>
-      <c r="AW3" s="12">
-        <v>0.94379999999999986</v>
-      </c>
-      <c r="AX3" s="12">
-        <v>0.94499999999999984</v>
-      </c>
-      <c r="AY3" s="12">
-        <v>0.94619999999999982</v>
-      </c>
-      <c r="AZ3" s="12">
-        <v>0.9473999999999998</v>
-      </c>
-      <c r="BA3" s="12">
-        <v>0.94859999999999978</v>
-      </c>
-      <c r="BB3" s="12">
-        <v>0.94979999999999976</v>
-      </c>
-      <c r="BC3" s="12">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="BD3" s="12">
-        <v>0.95333333333333325</v>
-      </c>
-      <c r="BE3" s="12">
-        <v>0.95566666666666655</v>
-      </c>
-      <c r="BF3" s="12">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,904 +1324,904 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>1960</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.88</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>1960</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6">
         <f>C5</f>
         <v>0.88</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>1980</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>1961</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7">
         <f>G5+(($G$25-$G$5)/($E$25-$E$5))</f>
         <v>0.88100000000000001</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>25</v>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>1990</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
         <v>0.90200000000000002</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1962</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" ref="G7:G24" si="0">G6+(($G$25-$G$5)/($E$25-$E$5))</f>
         <v>0.88200000000000001</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>25</v>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>2000</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.93899999999999995</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>1963</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0.88300000000000001</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>2010</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.95099999999999996</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>1964</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>0.88400000000000001</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>2013</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.95799999999999996</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1965</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>25</v>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>1966</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0.88600000000000001</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>25</v>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>1967</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>0.88700000000000001</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>25</v>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>1968</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0.88800000000000001</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>25</v>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>1969</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>0.88900000000000001</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>25</v>
+      <c r="H14" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>1970</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>25</v>
+      <c r="H15" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>1971</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>0.89100000000000001</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>25</v>
+      <c r="H16" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>1972</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>0.89200000000000002</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>25</v>
+      <c r="H17" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>1973</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>0.89300000000000002</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>25</v>
+      <c r="H18" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>1974</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0.89400000000000002</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>25</v>
+      <c r="H19" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>1975</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>25</v>
+      <c r="H20" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>1976</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>0.89600000000000002</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>25</v>
+      <c r="H21" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>1977</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>0.89700000000000002</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>25</v>
+      <c r="H22" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>1978</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>0.89800000000000002</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>25</v>
+      <c r="H23" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>1979</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>0.89900000000000002</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>25</v>
+      <c r="H24" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>1980</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6">
         <f>C6</f>
         <v>0.9</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>24</v>
+      <c r="H25" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>1981</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="7">
         <f>G25+(($G$35-$G$25)/($E$35-$E$25))</f>
         <v>0.9002</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>25</v>
+      <c r="H26" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>1982</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" ref="G27:G34" si="1">G26+(($G$35-$G$25)/($E$35-$E$25))</f>
         <v>0.90039999999999998</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>25</v>
+      <c r="H27" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>1983</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>0.90059999999999996</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>25</v>
+      <c r="H28" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>1984</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="1"/>
         <v>0.90079999999999993</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>25</v>
+      <c r="H29" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>1985</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="1"/>
         <v>0.90099999999999991</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>25</v>
+      <c r="H30" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>1986</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="1"/>
         <v>0.90119999999999989</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>25</v>
+      <c r="H31" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>1987</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="1"/>
         <v>0.90139999999999987</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>25</v>
+      <c r="H32" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>1988</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="10">
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="1"/>
         <v>0.90159999999999985</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>25</v>
+      <c r="H33" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>1989</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="F34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="1"/>
         <v>0.90179999999999982</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>25</v>
+      <c r="H34" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>1990</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="6">
         <f>C7</f>
         <v>0.90200000000000002</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>24</v>
+      <c r="H35" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>1991</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="10">
+      <c r="F36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="7">
         <f>G35+(($G$45-$G$35)/($E$45-$E$35))</f>
         <v>0.90570000000000006</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>25</v>
+      <c r="H36" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <v>1992</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="10">
+      <c r="F37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" ref="G37:G44" si="2">G36+(($G$45-$G$35)/($E$45-$E$35))</f>
         <v>0.9094000000000001</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>25</v>
+      <c r="H37" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <v>1993</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="10">
+      <c r="F38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="2"/>
         <v>0.91310000000000013</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>25</v>
+      <c r="H38" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="9">
+      <c r="E39" s="6">
         <v>1994</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="F39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="7">
         <f t="shared" si="2"/>
         <v>0.91680000000000017</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>25</v>
+      <c r="H39" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="9">
+      <c r="E40" s="6">
         <v>1995</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="10">
+      <c r="F40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="7">
         <f t="shared" si="2"/>
         <v>0.92050000000000021</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>25</v>
+      <c r="H40" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <v>1996</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="10">
+      <c r="F41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="7">
         <f t="shared" si="2"/>
         <v>0.92420000000000024</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>25</v>
+      <c r="H41" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="9">
+      <c r="E42" s="6">
         <v>1997</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="10">
+      <c r="F42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="7">
         <f t="shared" si="2"/>
         <v>0.92790000000000028</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>25</v>
+      <c r="H42" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <v>1998</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="10">
+      <c r="F43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="7">
         <f t="shared" si="2"/>
         <v>0.93160000000000032</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>25</v>
+      <c r="H43" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="9">
+      <c r="E44" s="6">
         <v>1999</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="10">
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="7">
         <f t="shared" si="2"/>
         <v>0.93530000000000035</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>25</v>
+      <c r="H44" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="9">
+      <c r="E45" s="6">
         <v>2000</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="6">
         <f>C8</f>
         <v>0.93899999999999995</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>24</v>
+      <c r="H45" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <v>2001</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="10">
+      <c r="F46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="7">
         <f>G45+(($G$55-$G$45)/($E$55-$E$45))</f>
         <v>0.94019999999999992</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>25</v>
+      <c r="H46" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="9">
+      <c r="E47" s="6">
         <v>2002</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="10">
+      <c r="F47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="7">
         <f t="shared" ref="G47:G54" si="3">G46+(($G$55-$G$45)/($E$55-$E$45))</f>
         <v>0.9413999999999999</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>25</v>
+      <c r="H47" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" s="9">
+      <c r="E48" s="6">
         <v>2003</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="10">
+      <c r="F48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="7">
         <f t="shared" si="3"/>
         <v>0.94259999999999988</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>25</v>
+      <c r="H48" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <v>2004</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="10">
+      <c r="F49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="7">
         <f t="shared" si="3"/>
         <v>0.94379999999999986</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>25</v>
+      <c r="H49" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="9">
+      <c r="E50" s="6">
         <v>2005</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="10">
+      <c r="F50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="7">
         <f t="shared" si="3"/>
         <v>0.94499999999999984</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>25</v>
+      <c r="H50" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="9">
+      <c r="E51" s="6">
         <v>2006</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="10">
+      <c r="F51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="7">
         <f t="shared" si="3"/>
         <v>0.94619999999999982</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>25</v>
+      <c r="H51" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="9">
+      <c r="E52" s="6">
         <v>2007</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="F52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="7">
         <f t="shared" si="3"/>
         <v>0.9473999999999998</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>25</v>
+      <c r="H52" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="9">
+      <c r="E53" s="6">
         <v>2008</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="10">
+      <c r="F53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="7">
         <f t="shared" si="3"/>
         <v>0.94859999999999978</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>25</v>
+      <c r="H53" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="9">
+      <c r="E54" s="6">
         <v>2009</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="10">
+      <c r="F54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="7">
         <f t="shared" si="3"/>
         <v>0.94979999999999976</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>25</v>
+      <c r="H54" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="9">
+      <c r="E55" s="6">
         <v>2010</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="F55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="6">
         <f>C9</f>
         <v>0.95099999999999996</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>24</v>
+      <c r="H55" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="9">
+      <c r="E56" s="6">
         <v>2011</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="F56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="8">
         <f>G55+(($G$58-$G$55)/($E$58-$E$55))</f>
         <v>0.95333333333333325</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>25</v>
+      <c r="H56" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E57" s="9">
+      <c r="E57" s="6">
         <v>2012</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="F57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="8">
         <f>G56+(($G$58-$G$55)/($E$58-$E$55))</f>
         <v>0.95566666666666655</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>25</v>
+      <c r="H57" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E58" s="9">
+      <c r="E58" s="6">
         <v>2013</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="9">
+      <c r="F58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="6">
         <f>C10</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>24</v>
+      <c r="H58" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
